--- a/_posts/2020-08-04-2020-08-04-abiyahmed/abiy_ahmed.xlsx
+++ b/_posts/2020-08-04-2020-08-04-abiyahmed/abiy_ahmed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\githubwebsite\_posts\2020-08-04-2020-08-04-abiyahmed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C2E040-FCB0-49DB-AB12-1CEB91E27CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27632687-61CD-4A2F-B866-45DD6CA14923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="13">
   <si>
     <t>Date_posted</t>
   </si>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2247,6 +2247,384 @@
         <v>12</v>
       </c>
     </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A129" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>18000</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A130" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>1400</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A131" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>288</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A132" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>391</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A133" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>158</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A134" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>37</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A135" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>24</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A136" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>47000</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A137" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>6200</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A138" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138">
+        <v>1200</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A139" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>607</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A140" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>457</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A141" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>228</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A142" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <v>22</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A143" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>18000</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A144" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>1000</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A145" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145">
+        <v>200</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A146" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>533</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A147" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>326</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A148" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>26</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A149" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>34</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A150" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>10650</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A151" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>913</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A152" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152">
+        <v>188</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A153" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>238</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A154" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>79</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A155" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>12</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D128">
     <sortCondition ref="A1"/>

--- a/_posts/2020-08-04-2020-08-04-abiyahmed/abiy_ahmed.xlsx
+++ b/_posts/2020-08-04-2020-08-04-abiyahmed/abiy_ahmed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\githubwebsite\_posts\2020-08-04-2020-08-04-abiyahmed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27632687-61CD-4A2F-B866-45DD6CA14923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E505FF-2E74-4AFC-BC66-AFB644C56FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
       <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>

--- a/_posts/2020-08-04-2020-08-04-abiyahmed/abiy_ahmed.xlsx
+++ b/_posts/2020-08-04-2020-08-04-abiyahmed/abiy_ahmed.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\githubwebsite\_posts\2020-08-04-2020-08-04-abiyahmed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E505FF-2E74-4AFC-BC66-AFB644C56FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39C62BA-CC8B-4163-B22E-59E7ABC93122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -432,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/_posts/2020-08-04-2020-08-04-abiyahmed/abiy_ahmed.xlsx
+++ b/_posts/2020-08-04-2020-08-04-abiyahmed/abiy_ahmed.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\githubwebsite\_posts\2020-08-04-2020-08-04-abiyahmed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39C62BA-CC8B-4163-B22E-59E7ABC93122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDB2A287-004C-40A6-98D3-58FD82E86F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
